--- a/resources/sensitivity/templates/Multiple Scenarios Sensitivity_template.xlsx
+++ b/resources/sensitivity/templates/Multiple Scenarios Sensitivity_template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gsc\OneDrive - San Diego Association of Governments\gsc\git\ABM-Reporting\resources\sensitivity\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="40" documentId="8_{D630385B-57EC-452B-908B-3216FD7E2397}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{E307CC83-8512-4ECA-B295-EBCA01AC0474}"/>
+  <xr:revisionPtr revIDLastSave="134" documentId="8_{D630385B-57EC-452B-908B-3216FD7E2397}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{EBC9D37D-8BC1-4912-B4EA-569E063529E7}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" firstSheet="1" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="2" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="scenarios" sheetId="1" r:id="rId1"/>
@@ -21,14 +21,13 @@
     <sheet name="highwayNetwork" sheetId="6" r:id="rId6"/>
     <sheet name="transitModeShareTripLength" sheetId="7" r:id="rId7"/>
     <sheet name="transitNetwork" sheetId="8" r:id="rId8"/>
-    <sheet name="workSchoolLocation" sheetId="9" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="0" calcCompleted="0"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="61">
   <si>
     <t>general scenario information</t>
   </si>
@@ -61,9 +60,6 @@
   </si>
   <si>
     <t>Shared Ride 2</t>
-  </si>
-  <si>
-    <t>Shared Ride 3</t>
   </si>
   <si>
     <t>TNC</t>
@@ -99,22 +95,10 @@
     <t>person trip purpose share - all models</t>
   </si>
   <si>
-    <t>Business</t>
-  </si>
-  <si>
-    <t>Cargo</t>
-  </si>
-  <si>
-    <t>Discretionary/Recreation</t>
-  </si>
-  <si>
     <t>Eating Out/Dining</t>
   </si>
   <si>
     <t>Escort</t>
-  </si>
-  <si>
-    <t>Home</t>
   </si>
   <si>
     <t>Maintenance</t>
@@ -126,25 +110,10 @@
     <t>Other</t>
   </si>
   <si>
-    <t>Personal</t>
-  </si>
-  <si>
-    <t>School</t>
-  </si>
-  <si>
     <t>Shop</t>
   </si>
   <si>
-    <t>University</t>
-  </si>
-  <si>
-    <t>Visit</t>
-  </si>
-  <si>
     <t>Work</t>
-  </si>
-  <si>
-    <t>Work-Based/Work-Related</t>
   </si>
   <si>
     <t>person trip distance by purpose - all models</t>
@@ -219,18 +188,6 @@
     <t>transit transfers by mode - all time periods</t>
   </si>
   <si>
-    <t>work location distance - all segments</t>
-  </si>
-  <si>
-    <t>distance</t>
-  </si>
-  <si>
-    <t>persons</t>
-  </si>
-  <si>
-    <t>school location distance - all students</t>
-  </si>
-  <si>
     <t>Metric Per Trip</t>
   </si>
   <si>
@@ -238,6 +195,21 @@
   </si>
   <si>
     <t>transit transfers per transit trip - all time periods</t>
+  </si>
+  <si>
+    <t>Super-Walk</t>
+  </si>
+  <si>
+    <t>Shared Ride 3+</t>
+  </si>
+  <si>
+    <t>Return to Origin</t>
+  </si>
+  <si>
+    <t>School/University</t>
+  </si>
+  <si>
+    <t>TNC Routing</t>
   </si>
 </sst>
 </file>
@@ -344,9 +316,6 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -366,6 +335,7 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -647,7 +617,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Shared Ride 3</c:v>
+                  <c:v>Shared Ride 3+</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -937,7 +907,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Bike</c:v>
+                  <c:v>Super-Walk</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1034,7 +1004,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Transit</c:v>
+                  <c:v>Bike</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1119,6 +1089,58 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000006-354C-4D45-959B-FE5CF02686B1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>modeShare!$I$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Transit</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>modeShare!$I$4:$I$8</c:f>
+              <c:numCache>
+                <c:formatCode>0.0%</c:formatCode>
+                <c:ptCount val="5"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-0B5B-4275-B8E5-E74167451AA5}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6752,9 +6774,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>tripLengthMode!$B$3:$H$3</c:f>
+              <c:f>tripLengthMode!$B$3:$I$3</c:f>
               <c:strCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>Drive Alone</c:v>
                 </c:pt>
@@ -6762,7 +6784,7 @@
                   <c:v>Shared Ride 2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Shared Ride 3</c:v>
+                  <c:v>Shared Ride 3+</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>TNC</c:v>
@@ -6771,9 +6793,12 @@
                   <c:v>Walk</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>Super-Walk</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>Bike</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>Transit</c:v>
                 </c:pt>
               </c:strCache>
@@ -6781,10 +6806,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>tripLengthMode!$B$4:$H$4</c:f>
+              <c:f>tripLengthMode!$B$4:$I$4</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="8"/>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -6844,9 +6869,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>tripLengthMode!$B$3:$H$3</c:f>
+              <c:f>tripLengthMode!$B$3:$I$3</c:f>
               <c:strCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>Drive Alone</c:v>
                 </c:pt>
@@ -6854,7 +6879,7 @@
                   <c:v>Shared Ride 2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Shared Ride 3</c:v>
+                  <c:v>Shared Ride 3+</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>TNC</c:v>
@@ -6863,9 +6888,12 @@
                   <c:v>Walk</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>Super-Walk</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>Bike</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>Transit</c:v>
                 </c:pt>
               </c:strCache>
@@ -6873,10 +6901,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>tripLengthMode!$B$5:$H$5</c:f>
+              <c:f>tripLengthMode!$B$5:$I$5</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="8"/>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -6957,9 +6985,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>tripLengthMode!$B$3:$H$3</c:f>
+              <c:f>tripLengthMode!$B$3:$I$3</c:f>
               <c:strCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>Drive Alone</c:v>
                 </c:pt>
@@ -6967,7 +6995,7 @@
                   <c:v>Shared Ride 2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Shared Ride 3</c:v>
+                  <c:v>Shared Ride 3+</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>TNC</c:v>
@@ -6976,9 +7004,12 @@
                   <c:v>Walk</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>Super-Walk</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>Bike</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>Transit</c:v>
                 </c:pt>
               </c:strCache>
@@ -6986,10 +7017,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>tripLengthMode!$B$6:$H$6</c:f>
+              <c:f>tripLengthMode!$B$6:$I$6</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="8"/>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -7049,9 +7080,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>tripLengthMode!$B$3:$H$3</c:f>
+              <c:f>tripLengthMode!$B$3:$I$3</c:f>
               <c:strCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>Drive Alone</c:v>
                 </c:pt>
@@ -7059,7 +7090,7 @@
                   <c:v>Shared Ride 2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Shared Ride 3</c:v>
+                  <c:v>Shared Ride 3+</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>TNC</c:v>
@@ -7068,9 +7099,12 @@
                   <c:v>Walk</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>Super-Walk</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>Bike</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>Transit</c:v>
                 </c:pt>
               </c:strCache>
@@ -7078,10 +7112,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>tripLengthMode!$B$7:$H$7</c:f>
+              <c:f>tripLengthMode!$B$7:$I$7</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="8"/>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -7140,9 +7174,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>tripLengthMode!$B$3:$H$3</c:f>
+              <c:f>tripLengthMode!$B$3:$I$3</c:f>
               <c:strCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>Drive Alone</c:v>
                 </c:pt>
@@ -7150,7 +7184,7 @@
                   <c:v>Shared Ride 2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Shared Ride 3</c:v>
+                  <c:v>Shared Ride 3+</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>TNC</c:v>
@@ -7159,9 +7193,12 @@
                   <c:v>Walk</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>Super-Walk</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>Bike</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>Transit</c:v>
                 </c:pt>
               </c:strCache>
@@ -7169,10 +7206,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>tripLengthMode!$B$8:$H$8</c:f>
+              <c:f>tripLengthMode!$B$8:$I$8</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="8"/>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -7550,9 +7587,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>tripLengthMode!$B$44:$H$44</c:f>
+              <c:f>tripLengthMode!$B$44:$I$44</c:f>
               <c:strCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>Drive Alone</c:v>
                 </c:pt>
@@ -7560,7 +7597,7 @@
                   <c:v>Shared Ride 2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Shared Ride 3</c:v>
+                  <c:v>Shared Ride 3+</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>TNC</c:v>
@@ -7569,9 +7606,12 @@
                   <c:v>Walk</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>Super-Walk</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>Bike</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>Transit</c:v>
                 </c:pt>
               </c:strCache>
@@ -7579,10 +7619,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>tripLengthMode!$B$45:$H$45</c:f>
+              <c:f>tripLengthMode!$B$45:$I$45</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="8"/>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -7639,9 +7679,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>tripLengthMode!$B$44:$H$44</c:f>
+              <c:f>tripLengthMode!$B$44:$I$44</c:f>
               <c:strCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>Drive Alone</c:v>
                 </c:pt>
@@ -7649,7 +7689,7 @@
                   <c:v>Shared Ride 2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Shared Ride 3</c:v>
+                  <c:v>Shared Ride 3+</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>TNC</c:v>
@@ -7658,9 +7698,12 @@
                   <c:v>Walk</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>Super-Walk</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>Bike</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>Transit</c:v>
                 </c:pt>
               </c:strCache>
@@ -7668,10 +7711,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>tripLengthMode!$B$46:$H$46</c:f>
+              <c:f>tripLengthMode!$B$46:$I$46</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="8"/>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -7728,9 +7771,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>tripLengthMode!$B$44:$H$44</c:f>
+              <c:f>tripLengthMode!$B$44:$I$44</c:f>
               <c:strCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>Drive Alone</c:v>
                 </c:pt>
@@ -7738,7 +7781,7 @@
                   <c:v>Shared Ride 2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Shared Ride 3</c:v>
+                  <c:v>Shared Ride 3+</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>TNC</c:v>
@@ -7747,9 +7790,12 @@
                   <c:v>Walk</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>Super-Walk</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>Bike</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>Transit</c:v>
                 </c:pt>
               </c:strCache>
@@ -7757,10 +7803,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>tripLengthMode!$B$47:$H$47</c:f>
+              <c:f>tripLengthMode!$B$47:$I$47</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="8"/>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -7817,9 +7863,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>tripLengthMode!$B$44:$H$44</c:f>
+              <c:f>tripLengthMode!$B$44:$I$44</c:f>
               <c:strCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>Drive Alone</c:v>
                 </c:pt>
@@ -7827,7 +7873,7 @@
                   <c:v>Shared Ride 2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Shared Ride 3</c:v>
+                  <c:v>Shared Ride 3+</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>TNC</c:v>
@@ -7836,9 +7882,12 @@
                   <c:v>Walk</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>Super-Walk</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>Bike</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>Transit</c:v>
                 </c:pt>
               </c:strCache>
@@ -7846,10 +7895,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>tripLengthMode!$B$48:$H$48</c:f>
+              <c:f>tripLengthMode!$B$48:$I$48</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="8"/>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -7906,9 +7955,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>tripLengthMode!$B$44:$H$44</c:f>
+              <c:f>tripLengthMode!$B$44:$I$44</c:f>
               <c:strCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>Drive Alone</c:v>
                 </c:pt>
@@ -7916,7 +7965,7 @@
                   <c:v>Shared Ride 2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Shared Ride 3</c:v>
+                  <c:v>Shared Ride 3+</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>TNC</c:v>
@@ -7925,9 +7974,12 @@
                   <c:v>Walk</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>Super-Walk</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>Bike</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>Transit</c:v>
                 </c:pt>
               </c:strCache>
@@ -7935,10 +7987,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>tripLengthMode!$B$49:$H$49</c:f>
+              <c:f>tripLengthMode!$B$49:$I$49</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="8"/>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -8272,15 +8324,119 @@
         <c:grouping val="stacked"/>
         <c:varyColors val="0"/>
         <c:ser>
+          <c:idx val="5"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>purposeShare!$B$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Eating Out/Dining</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>purposeShare!$B$4:$B$8</c:f>
+              <c:numCache>
+                <c:formatCode>0.0%</c:formatCode>
+                <c:ptCount val="5"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-068B-4F81-A817-AFBEB4681362}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>purposeShare!$C$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Escort</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>purposeShare!$C$4:$C$8</c:f>
+              <c:numCache>
+                <c:formatCode>0.0%</c:formatCode>
+                <c:ptCount val="5"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-068B-4F81-A817-AFBEB4681362}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
           <c:idx val="0"/>
-          <c:order val="0"/>
+          <c:order val="2"/>
           <c:tx>
             <c:strRef>
               <c:f>purposeShare!$D$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Discretionary/Recreation</c:v>
+                  <c:v>Maintenance</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -8369,14 +8525,14 @@
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
-          <c:order val="1"/>
+          <c:order val="3"/>
           <c:tx>
             <c:strRef>
               <c:f>purposeShare!$E$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Eating Out/Dining</c:v>
+                  <c:v>Not Applicable</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -8465,14 +8621,14 @@
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
-          <c:order val="2"/>
+          <c:order val="4"/>
           <c:tx>
             <c:strRef>
               <c:f>purposeShare!$F$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Escort</c:v>
+                  <c:v>Other</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -8563,14 +8719,14 @@
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
-          <c:order val="3"/>
+          <c:order val="5"/>
           <c:tx>
             <c:strRef>
               <c:f>purposeShare!$G$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Home</c:v>
+                  <c:v>Return to Origin</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -8660,14 +8816,14 @@
         </c:ser>
         <c:ser>
           <c:idx val="4"/>
-          <c:order val="4"/>
+          <c:order val="6"/>
           <c:tx>
             <c:strRef>
               <c:f>purposeShare!$H$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Maintenance</c:v>
+                  <c:v>School/University</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -8755,63 +8911,28 @@
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="5"/>
-          <c:order val="5"/>
+          <c:idx val="7"/>
+          <c:order val="7"/>
           <c:tx>
             <c:strRef>
-              <c:f>purposeShare!$L$3</c:f>
+              <c:f>purposeShare!$I$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>School</c:v>
+                  <c:v>Shop</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent6">
-                <a:alpha val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="lt1">
-                  <a:alpha val="50000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:prstDash val="solid"/>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
             <c:spPr>
               <a:noFill/>
               <a:ln>
                 <a:noFill/>
-                <a:prstDash val="solid"/>
               </a:ln>
+              <a:effectLst/>
             </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="1" i="0" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="lt1"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
             <c:dLblPos val="ctr"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
@@ -8822,22 +8943,13 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="0"/>
+                <c15:showLeaderLines val="1"/>
               </c:ext>
             </c:extLst>
           </c:dLbls>
-          <c:cat>
-            <c:numRef>
-              <c:f>purposeShare!$A$4:$A$8</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>purposeShare!$L$4:$L$8</c:f>
+              <c:f>purposeShare!$I$4:$I$8</c:f>
               <c:numCache>
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="5"/>
@@ -8846,69 +8958,33 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-09B7-44AB-894F-4F6BAB43BD74}"/>
+              <c16:uniqueId val="{00000002-068B-4F81-A817-AFBEB4681362}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="6"/>
-          <c:order val="6"/>
+          <c:idx val="8"/>
+          <c:order val="8"/>
           <c:tx>
             <c:strRef>
-              <c:f>purposeShare!$M$3</c:f>
+              <c:f>purposeShare!$J$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Shop</c:v>
+                  <c:v>TNC Routing</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1">
-                <a:alpha val="85000"/>
-                <a:lumMod val="60000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="lt1">
-                  <a:alpha val="50000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:prstDash val="solid"/>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
             <c:spPr>
               <a:noFill/>
               <a:ln>
                 <a:noFill/>
-                <a:prstDash val="solid"/>
               </a:ln>
+              <a:effectLst/>
             </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="1" i="0" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="lt1"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
             <c:dLblPos val="ctr"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
@@ -8919,22 +8995,13 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="0"/>
+                <c15:showLeaderLines val="1"/>
               </c:ext>
             </c:extLst>
           </c:dLbls>
-          <c:cat>
-            <c:numRef>
-              <c:f>purposeShare!$A$4:$A$8</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>purposeShare!$M$4:$M$8</c:f>
+              <c:f>purposeShare!$J$4:$J$8</c:f>
               <c:numCache>
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="5"/>
@@ -8943,69 +9010,33 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-09B7-44AB-894F-4F6BAB43BD74}"/>
+              <c16:uniqueId val="{00000003-068B-4F81-A817-AFBEB4681362}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="7"/>
-          <c:order val="7"/>
+          <c:idx val="9"/>
+          <c:order val="9"/>
           <c:tx>
             <c:strRef>
-              <c:f>purposeShare!$N$3</c:f>
+              <c:f>purposeShare!$K$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>University</c:v>
+                  <c:v>Work</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2">
-                <a:alpha val="85000"/>
-                <a:lumMod val="60000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="lt1">
-                  <a:alpha val="50000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:prstDash val="solid"/>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
             <c:spPr>
               <a:noFill/>
               <a:ln>
                 <a:noFill/>
-                <a:prstDash val="solid"/>
               </a:ln>
+              <a:effectLst/>
             </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="1" i="0" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="lt1"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
             <c:dLblPos val="ctr"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
@@ -9016,22 +9047,13 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="0"/>
+                <c15:showLeaderLines val="1"/>
               </c:ext>
             </c:extLst>
           </c:dLbls>
-          <c:cat>
-            <c:numRef>
-              <c:f>purposeShare!$A$4:$A$8</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>purposeShare!$N$4:$N$8</c:f>
+              <c:f>purposeShare!$K$4:$K$8</c:f>
               <c:numCache>
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="5"/>
@@ -9040,298 +9062,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000007-09B7-44AB-894F-4F6BAB43BD74}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="8"/>
-          <c:order val="8"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>purposeShare!$O$3</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Visit</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent3">
-                <a:alpha val="85000"/>
-                <a:lumMod val="60000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="lt1">
-                  <a:alpha val="50000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:prstDash val="solid"/>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-                <a:prstDash val="solid"/>
-              </a:ln>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="1" i="0" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="lt1"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="ctr"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="0"/>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:numRef>
-              <c:f>purposeShare!$A$4:$A$8</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>purposeShare!$O$4:$O$8</c:f>
-              <c:numCache>
-                <c:formatCode>0.0%</c:formatCode>
-                <c:ptCount val="5"/>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000008-09B7-44AB-894F-4F6BAB43BD74}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="9"/>
-          <c:order val="9"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>purposeShare!$P$3</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Work</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent4">
-                <a:alpha val="85000"/>
-                <a:lumMod val="60000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="lt1">
-                  <a:alpha val="50000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:prstDash val="solid"/>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-                <a:prstDash val="solid"/>
-              </a:ln>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="1" i="0" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="lt1"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="ctr"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="0"/>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:numRef>
-              <c:f>purposeShare!$A$4:$A$8</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>purposeShare!$P$4:$P$8</c:f>
-              <c:numCache>
-                <c:formatCode>0.0%</c:formatCode>
-                <c:ptCount val="5"/>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000009-09B7-44AB-894F-4F6BAB43BD74}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="10"/>
-          <c:order val="10"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>purposeShare!$Q$3</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Work-Based/Work-Related</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent5">
-                <a:alpha val="85000"/>
-                <a:lumMod val="60000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="lt1">
-                  <a:alpha val="50000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:prstDash val="solid"/>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-                <a:prstDash val="solid"/>
-              </a:ln>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="1" i="0" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="lt1"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="ctr"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="0"/>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:numRef>
-              <c:f>purposeShare!$A$4:$A$8</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>purposeShare!$Q$4:$Q$8</c:f>
-              <c:numCache>
-                <c:formatCode>0.0%</c:formatCode>
-                <c:ptCount val="5"/>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000A-09B7-44AB-894F-4F6BAB43BD74}"/>
+              <c16:uniqueId val="{00000004-068B-4F81-A817-AFBEB4681362}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -9692,51 +9423,48 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>(tripLengthPurpose!$D$3:$H$3,tripLengthPurpose!$L$3:$Q$3)</c:f>
+              <c:f>tripLengthPurpose!$B$3:$K$3</c:f>
               <c:strCache>
-                <c:ptCount val="11"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>Discretionary/Recreation</c:v>
+                  <c:v>Eating Out/Dining</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Eating Out/Dining</c:v>
+                  <c:v>Escort</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Escort</c:v>
+                  <c:v>Maintenance</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Home</c:v>
+                  <c:v>Not Applicable</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Maintenance</c:v>
+                  <c:v>Other</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>School</c:v>
+                  <c:v>Return to Origin</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>School/University</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>Shop</c:v>
                 </c:pt>
-                <c:pt idx="7">
-                  <c:v>University</c:v>
-                </c:pt>
                 <c:pt idx="8">
-                  <c:v>Visit</c:v>
+                  <c:v>TNC Routing</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>Work</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>Work-Based/Work-Related</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>(tripLengthPurpose!$D$4:$H$4,tripLengthPurpose!$L$4:$Q$4)</c:f>
+              <c:f>tripLengthPurpose!$B$4:$K$4</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="10"/>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -9793,51 +9521,48 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>(tripLengthPurpose!$D$3:$H$3,tripLengthPurpose!$L$3:$Q$3)</c:f>
+              <c:f>tripLengthPurpose!$B$3:$K$3</c:f>
               <c:strCache>
-                <c:ptCount val="11"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>Discretionary/Recreation</c:v>
+                  <c:v>Eating Out/Dining</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Eating Out/Dining</c:v>
+                  <c:v>Escort</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Escort</c:v>
+                  <c:v>Maintenance</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Home</c:v>
+                  <c:v>Not Applicable</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Maintenance</c:v>
+                  <c:v>Other</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>School</c:v>
+                  <c:v>Return to Origin</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>School/University</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>Shop</c:v>
                 </c:pt>
-                <c:pt idx="7">
-                  <c:v>University</c:v>
-                </c:pt>
                 <c:pt idx="8">
-                  <c:v>Visit</c:v>
+                  <c:v>TNC Routing</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>Work</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>Work-Based/Work-Related</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>(tripLengthPurpose!$D$5:$H$5,tripLengthPurpose!$L$5:$Q$5)</c:f>
+              <c:f>tripLengthPurpose!$B$5:$K$5</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="10"/>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -9918,51 +9643,48 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>(tripLengthPurpose!$D$3:$H$3,tripLengthPurpose!$L$3:$Q$3)</c:f>
+              <c:f>tripLengthPurpose!$B$3:$K$3</c:f>
               <c:strCache>
-                <c:ptCount val="11"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>Discretionary/Recreation</c:v>
+                  <c:v>Eating Out/Dining</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Eating Out/Dining</c:v>
+                  <c:v>Escort</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Escort</c:v>
+                  <c:v>Maintenance</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Home</c:v>
+                  <c:v>Not Applicable</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Maintenance</c:v>
+                  <c:v>Other</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>School</c:v>
+                  <c:v>Return to Origin</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>School/University</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>Shop</c:v>
                 </c:pt>
-                <c:pt idx="7">
-                  <c:v>University</c:v>
-                </c:pt>
                 <c:pt idx="8">
-                  <c:v>Visit</c:v>
+                  <c:v>TNC Routing</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>Work</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>Work-Based/Work-Related</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>(tripLengthPurpose!$D$6:$H$6,tripLengthPurpose!$L$6:$Q$6)</c:f>
+              <c:f>tripLengthPurpose!$B$6:$K$6</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="10"/>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -10022,51 +9744,48 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>(tripLengthPurpose!$D$3:$H$3,tripLengthPurpose!$L$3:$Q$3)</c:f>
+              <c:f>tripLengthPurpose!$B$3:$K$3</c:f>
               <c:strCache>
-                <c:ptCount val="11"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>Discretionary/Recreation</c:v>
+                  <c:v>Eating Out/Dining</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Eating Out/Dining</c:v>
+                  <c:v>Escort</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Escort</c:v>
+                  <c:v>Maintenance</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Home</c:v>
+                  <c:v>Not Applicable</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Maintenance</c:v>
+                  <c:v>Other</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>School</c:v>
+                  <c:v>Return to Origin</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>School/University</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>Shop</c:v>
                 </c:pt>
-                <c:pt idx="7">
-                  <c:v>University</c:v>
-                </c:pt>
                 <c:pt idx="8">
-                  <c:v>Visit</c:v>
+                  <c:v>TNC Routing</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>Work</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>Work-Based/Work-Related</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>(tripLengthPurpose!$D$7:$H$7,tripLengthPurpose!$L$7:$Q$7)</c:f>
+              <c:f>tripLengthPurpose!$B$7:$K$7</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="10"/>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -10125,51 +9844,48 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>(tripLengthPurpose!$D$3:$H$3,tripLengthPurpose!$L$3:$Q$3)</c:f>
+              <c:f>tripLengthPurpose!$B$3:$K$3</c:f>
               <c:strCache>
-                <c:ptCount val="11"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>Discretionary/Recreation</c:v>
+                  <c:v>Eating Out/Dining</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Eating Out/Dining</c:v>
+                  <c:v>Escort</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Escort</c:v>
+                  <c:v>Maintenance</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Home</c:v>
+                  <c:v>Not Applicable</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Maintenance</c:v>
+                  <c:v>Other</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>School</c:v>
+                  <c:v>Return to Origin</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>School/University</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>Shop</c:v>
                 </c:pt>
-                <c:pt idx="7">
-                  <c:v>University</c:v>
-                </c:pt>
                 <c:pt idx="8">
-                  <c:v>Visit</c:v>
+                  <c:v>TNC Routing</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>Work</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>Work-Based/Work-Related</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>(tripLengthPurpose!$D$8:$H$8,tripLengthPurpose!$L$8:$Q$8)</c:f>
+              <c:f>tripLengthPurpose!$B$8:$K$8</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="10"/>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -10547,51 +10263,48 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>(tripLengthPurpose!$D$44:$H$44,tripLengthPurpose!$L$44:$Q$44)</c:f>
+              <c:f>tripLengthPurpose!$B$44:$K$44</c:f>
               <c:strCache>
-                <c:ptCount val="11"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>Discretionary/Recreation</c:v>
+                  <c:v>Eating Out/Dining</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Eating Out/Dining</c:v>
+                  <c:v>Escort</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Escort</c:v>
+                  <c:v>Maintenance</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Home</c:v>
+                  <c:v>Not Applicable</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Maintenance</c:v>
+                  <c:v>Other</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>School</c:v>
+                  <c:v>Return to Origin</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>School/University</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>Shop</c:v>
                 </c:pt>
-                <c:pt idx="7">
-                  <c:v>University</c:v>
-                </c:pt>
                 <c:pt idx="8">
-                  <c:v>Visit</c:v>
+                  <c:v>TNC Routing</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>Work</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>Work-Based/Work-Related</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>(tripLengthPurpose!$D$45:$H$45,tripLengthPurpose!$L$45:$Q$45)</c:f>
+              <c:f>tripLengthPurpose!$B$45:$K$45</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="10"/>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -10648,51 +10361,48 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>(tripLengthPurpose!$D$44:$H$44,tripLengthPurpose!$L$44:$Q$44)</c:f>
+              <c:f>tripLengthPurpose!$B$44:$K$44</c:f>
               <c:strCache>
-                <c:ptCount val="11"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>Discretionary/Recreation</c:v>
+                  <c:v>Eating Out/Dining</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Eating Out/Dining</c:v>
+                  <c:v>Escort</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Escort</c:v>
+                  <c:v>Maintenance</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Home</c:v>
+                  <c:v>Not Applicable</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Maintenance</c:v>
+                  <c:v>Other</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>School</c:v>
+                  <c:v>Return to Origin</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>School/University</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>Shop</c:v>
                 </c:pt>
-                <c:pt idx="7">
-                  <c:v>University</c:v>
-                </c:pt>
                 <c:pt idx="8">
-                  <c:v>Visit</c:v>
+                  <c:v>TNC Routing</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>Work</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>Work-Based/Work-Related</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>(tripLengthPurpose!$D$46:$H$46,tripLengthPurpose!$L$46:$Q$46)</c:f>
+              <c:f>tripLengthPurpose!$B$46:$K$46</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="10"/>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -10749,51 +10459,48 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>(tripLengthPurpose!$D$44:$H$44,tripLengthPurpose!$L$44:$Q$44)</c:f>
+              <c:f>tripLengthPurpose!$B$44:$K$44</c:f>
               <c:strCache>
-                <c:ptCount val="11"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>Discretionary/Recreation</c:v>
+                  <c:v>Eating Out/Dining</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Eating Out/Dining</c:v>
+                  <c:v>Escort</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Escort</c:v>
+                  <c:v>Maintenance</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Home</c:v>
+                  <c:v>Not Applicable</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Maintenance</c:v>
+                  <c:v>Other</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>School</c:v>
+                  <c:v>Return to Origin</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>School/University</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>Shop</c:v>
                 </c:pt>
-                <c:pt idx="7">
-                  <c:v>University</c:v>
-                </c:pt>
                 <c:pt idx="8">
-                  <c:v>Visit</c:v>
+                  <c:v>TNC Routing</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>Work</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>Work-Based/Work-Related</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>(tripLengthPurpose!$D$47:$H$47,tripLengthPurpose!$L$47:$Q$47)</c:f>
+              <c:f>tripLengthPurpose!$B$47:$K$47</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="10"/>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -10850,51 +10557,48 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>(tripLengthPurpose!$D$44:$H$44,tripLengthPurpose!$L$44:$Q$44)</c:f>
+              <c:f>tripLengthPurpose!$B$44:$K$44</c:f>
               <c:strCache>
-                <c:ptCount val="11"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>Discretionary/Recreation</c:v>
+                  <c:v>Eating Out/Dining</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Eating Out/Dining</c:v>
+                  <c:v>Escort</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Escort</c:v>
+                  <c:v>Maintenance</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Home</c:v>
+                  <c:v>Not Applicable</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Maintenance</c:v>
+                  <c:v>Other</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>School</c:v>
+                  <c:v>Return to Origin</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>School/University</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>Shop</c:v>
                 </c:pt>
-                <c:pt idx="7">
-                  <c:v>University</c:v>
-                </c:pt>
                 <c:pt idx="8">
-                  <c:v>Visit</c:v>
+                  <c:v>TNC Routing</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>Work</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>Work-Based/Work-Related</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>(tripLengthPurpose!$D$48:$H$48,tripLengthPurpose!$L$48:$Q$48)</c:f>
+              <c:f>tripLengthPurpose!$B$48:$K$48</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="10"/>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -10973,51 +10677,48 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>(tripLengthPurpose!$D$44:$H$44,tripLengthPurpose!$L$44:$Q$44)</c:f>
+              <c:f>tripLengthPurpose!$B$44:$K$44</c:f>
               <c:strCache>
-                <c:ptCount val="11"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>Discretionary/Recreation</c:v>
+                  <c:v>Eating Out/Dining</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Eating Out/Dining</c:v>
+                  <c:v>Escort</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Escort</c:v>
+                  <c:v>Maintenance</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Home</c:v>
+                  <c:v>Not Applicable</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Maintenance</c:v>
+                  <c:v>Other</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>School</c:v>
+                  <c:v>Return to Origin</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>School/University</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>Shop</c:v>
                 </c:pt>
-                <c:pt idx="7">
-                  <c:v>University</c:v>
-                </c:pt>
                 <c:pt idx="8">
-                  <c:v>Visit</c:v>
+                  <c:v>TNC Routing</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>Work</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>Work-Based/Work-Related</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>(tripLengthPurpose!$D$49:$H$49,tripLengthPurpose!$L$49:$Q$49)</c:f>
+              <c:f>tripLengthPurpose!$B$49:$K$49</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="10"/>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -13899,11 +13600,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.28515625" style="9" customWidth="1"/>
-    <col min="2" max="2" width="34.5703125" style="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12" style="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="30.7109375" style="9" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="139.28515625" style="9" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.28515625" style="8" customWidth="1"/>
+    <col min="2" max="2" width="34.5703125" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12" style="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="30.7109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="139.28515625" style="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -13914,25 +13615,25 @@
       <c r="C1" s="1"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="D3" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="12" t="s">
+      <c r="E3" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="12" t="s">
+      <c r="F3" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="12" t="s">
+      <c r="G3" s="11" t="s">
         <v>7</v>
       </c>
     </row>
@@ -13978,18 +13679,21 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:M8"/>
+  <dimension ref="A1:M9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L8" sqref="A4:L8"/>
+      <selection activeCell="Q7" sqref="Q7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.140625" style="9" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" style="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="13.140625" style="9" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.42578125" style="9" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.140625" style="8" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.42578125" style="8" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
@@ -14003,46 +13707,47 @@
       <c r="A2" s="2"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="D3" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="E3" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="12" t="s">
+      <c r="F3" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="12" t="s">
+      <c r="G3" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="H3" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="12" t="s">
+      <c r="I3" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="H3" s="12" t="s">
+      <c r="J3" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="I3" s="12" t="s">
+      <c r="K3" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="J3" s="12" t="s">
+      <c r="L3" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="K3" s="12" t="s">
+      <c r="M3" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="L3" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="M3" s="5"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
@@ -14057,7 +13762,6 @@
       <c r="M4" s="4"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
@@ -14116,6 +13820,9 @@
       <c r="L8" s="3"/>
       <c r="M8" s="4"/>
     </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M9" s="4"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -14124,249 +13831,264 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:L49"/>
+  <dimension ref="A1:M49"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="R56" sqref="R56"/>
+    <sheetView topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="O54" sqref="O54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13" style="9" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" style="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="13.140625" style="9" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.42578125" style="9" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13" style="8" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.42578125" style="8" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="12" t="s">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="D3" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="E3" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="12" t="s">
+      <c r="F3" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="12" t="s">
+      <c r="G3" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="H3" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="12" t="s">
+      <c r="I3" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="H3" s="12" t="s">
+      <c r="J3" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="I3" s="12" t="s">
+      <c r="K3" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="J3" s="12" t="s">
+      <c r="L3" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="K3" s="12" t="s">
+      <c r="M3" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="L3" s="12" t="s">
-        <v>19</v>
-      </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4"/>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
-      <c r="K4" s="6"/>
-      <c r="L4" s="6"/>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="14"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5"/>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="6"/>
-      <c r="L5" s="6"/>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="14"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6"/>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
-      <c r="K6" s="6"/>
-      <c r="L6" s="6"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="14"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7"/>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="6"/>
-      <c r="L7" s="6"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="14"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="6"/>
-      <c r="K8" s="6"/>
-      <c r="L8" s="6"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="14"/>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A44" s="12" t="s">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A44" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B44" s="12" t="s">
+      <c r="B44" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C44" s="12" t="s">
+      <c r="C44" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="D44" s="12" t="s">
+      <c r="D44" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="E44" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="E44" s="12" t="s">
+      <c r="F44" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="F44" s="12" t="s">
+      <c r="G44" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="H44" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="G44" s="12" t="s">
+      <c r="I44" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="H44" s="12" t="s">
+      <c r="J44" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="I44" s="12" t="s">
+      <c r="K44" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="J44" s="12" t="s">
+      <c r="L44" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="K44" s="12" t="s">
+      <c r="M44" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="L44" s="12" t="s">
-        <v>19</v>
-      </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A45"/>
-      <c r="B45" s="6"/>
-      <c r="C45" s="6"/>
-      <c r="D45" s="6"/>
-      <c r="E45" s="6"/>
-      <c r="F45" s="6"/>
-      <c r="G45" s="6"/>
-      <c r="H45" s="6"/>
-      <c r="I45" s="6"/>
-      <c r="J45" s="6"/>
-      <c r="K45" s="6"/>
-      <c r="L45" s="6"/>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B45" s="5"/>
+      <c r="C45" s="5"/>
+      <c r="D45" s="5"/>
+      <c r="E45" s="5"/>
+      <c r="F45" s="5"/>
+      <c r="G45" s="5"/>
+      <c r="H45" s="5"/>
+      <c r="I45" s="5"/>
+      <c r="J45" s="5"/>
+      <c r="K45" s="5"/>
+      <c r="L45" s="5"/>
+      <c r="M45" s="14"/>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A46"/>
-      <c r="B46" s="6"/>
-      <c r="C46" s="6"/>
-      <c r="D46" s="6"/>
-      <c r="E46" s="6"/>
-      <c r="F46" s="6"/>
-      <c r="G46" s="6"/>
-      <c r="H46" s="6"/>
-      <c r="I46" s="6"/>
-      <c r="J46" s="6"/>
-      <c r="K46" s="6"/>
-      <c r="L46" s="6"/>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B46" s="5"/>
+      <c r="C46" s="5"/>
+      <c r="D46" s="5"/>
+      <c r="E46" s="5"/>
+      <c r="F46" s="5"/>
+      <c r="G46" s="5"/>
+      <c r="H46" s="5"/>
+      <c r="I46" s="5"/>
+      <c r="J46" s="5"/>
+      <c r="K46" s="5"/>
+      <c r="L46" s="5"/>
+      <c r="M46" s="14"/>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47"/>
-      <c r="B47" s="6"/>
-      <c r="C47" s="6"/>
-      <c r="D47" s="6"/>
-      <c r="E47" s="6"/>
-      <c r="F47" s="6"/>
-      <c r="G47" s="6"/>
-      <c r="H47" s="6"/>
-      <c r="I47" s="6"/>
-      <c r="J47" s="6"/>
-      <c r="K47" s="6"/>
-      <c r="L47" s="6"/>
+      <c r="B47" s="5"/>
+      <c r="C47" s="5"/>
+      <c r="D47" s="5"/>
+      <c r="E47" s="5"/>
+      <c r="F47" s="5"/>
+      <c r="G47" s="5"/>
+      <c r="H47" s="5"/>
+      <c r="I47" s="5"/>
+      <c r="J47" s="5"/>
+      <c r="K47" s="5"/>
+      <c r="L47" s="5"/>
+      <c r="M47" s="14"/>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48"/>
-      <c r="B48" s="6"/>
-      <c r="C48" s="6"/>
-      <c r="D48" s="6"/>
-      <c r="E48" s="6"/>
-      <c r="F48" s="6"/>
-      <c r="G48" s="6"/>
-      <c r="H48" s="6"/>
-      <c r="I48" s="6"/>
-      <c r="J48" s="6"/>
-      <c r="K48" s="6"/>
-      <c r="L48" s="6"/>
+      <c r="B48" s="5"/>
+      <c r="C48" s="5"/>
+      <c r="D48" s="5"/>
+      <c r="E48" s="5"/>
+      <c r="F48" s="5"/>
+      <c r="G48" s="5"/>
+      <c r="H48" s="5"/>
+      <c r="I48" s="5"/>
+      <c r="J48" s="5"/>
+      <c r="K48" s="5"/>
+      <c r="L48" s="5"/>
+      <c r="M48" s="14"/>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49"/>
-      <c r="B49" s="6"/>
-      <c r="C49" s="6"/>
-      <c r="D49" s="6"/>
-      <c r="E49" s="6"/>
-      <c r="F49" s="6"/>
-      <c r="G49" s="6"/>
-      <c r="H49" s="6"/>
-      <c r="I49" s="6"/>
-      <c r="J49" s="6"/>
-      <c r="K49" s="6"/>
-      <c r="L49" s="6"/>
+      <c r="B49" s="5"/>
+      <c r="C49" s="5"/>
+      <c r="D49" s="5"/>
+      <c r="E49" s="5"/>
+      <c r="F49" s="5"/>
+      <c r="G49" s="5"/>
+      <c r="H49" s="5"/>
+      <c r="I49" s="5"/>
+      <c r="J49" s="5"/>
+      <c r="K49" s="5"/>
+      <c r="L49" s="5"/>
+      <c r="M49" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -14376,90 +14098,72 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:R38"/>
+  <dimension ref="A1:L38"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R8" sqref="A4:R8"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.42578125" style="9" customWidth="1"/>
-    <col min="3" max="3" width="9.28515625" style="9" customWidth="1"/>
-    <col min="4" max="4" width="23.5703125" style="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.85546875" style="9" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.5703125" style="9" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.28515625" style="9" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10" style="9" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="25.28515625" style="9" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.42578125" style="8" customWidth="1"/>
+    <col min="2" max="2" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.28515625" style="8" customWidth="1"/>
+    <col min="4" max="4" width="23.5703125" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.85546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17" style="8" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" style="8" customWidth="1"/>
+    <col min="10" max="10" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A3" s="12" t="s">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="D3" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="E3" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="E3" s="12" t="s">
+      <c r="F3" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="F3" s="12" t="s">
+      <c r="G3" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="H3" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="I3" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="G3" s="12" t="s">
+      <c r="J3" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="K3" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="H3" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="I3" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="J3" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="K3" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="L3" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="M3" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="N3" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="O3" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="P3" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q3" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="R3" s="12" t="s">
-        <v>19</v>
+      <c r="L3" s="11" t="s">
+        <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A4"/>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
@@ -14471,15 +14175,8 @@
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
       <c r="L4" s="3"/>
-      <c r="M4" s="3"/>
-      <c r="N4" s="3"/>
-      <c r="O4" s="3"/>
-      <c r="P4" s="3"/>
-      <c r="Q4" s="3"/>
-      <c r="R4" s="3"/>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A5"/>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
@@ -14491,14 +14188,8 @@
       <c r="J5" s="3"/>
       <c r="K5" s="3"/>
       <c r="L5" s="3"/>
-      <c r="M5" s="3"/>
-      <c r="N5" s="3"/>
-      <c r="O5" s="3"/>
-      <c r="P5" s="3"/>
-      <c r="Q5" s="3"/>
-      <c r="R5" s="3"/>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -14511,14 +14202,8 @@
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
       <c r="L6" s="3"/>
-      <c r="M6" s="3"/>
-      <c r="N6" s="3"/>
-      <c r="O6" s="3"/>
-      <c r="P6" s="3"/>
-      <c r="Q6" s="3"/>
-      <c r="R6" s="3"/>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -14531,14 +14216,8 @@
       <c r="J7" s="3"/>
       <c r="K7" s="3"/>
       <c r="L7" s="3"/>
-      <c r="M7" s="3"/>
-      <c r="N7" s="3"/>
-      <c r="O7" s="3"/>
-      <c r="P7" s="3"/>
-      <c r="Q7" s="3"/>
-      <c r="R7" s="3"/>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -14551,12 +14230,6 @@
       <c r="J8" s="3"/>
       <c r="K8" s="3"/>
       <c r="L8" s="3"/>
-      <c r="M8" s="3"/>
-      <c r="N8" s="3"/>
-      <c r="O8" s="3"/>
-      <c r="P8" s="3"/>
-      <c r="Q8" s="3"/>
-      <c r="R8" s="3"/>
     </row>
     <row r="38" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
@@ -14567,356 +14240,254 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:R49"/>
+  <dimension ref="A1:L49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="R59" sqref="R59"/>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="O52" sqref="O52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.85546875" style="9" customWidth="1"/>
-    <col min="2" max="3" width="9.42578125" style="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.85546875" style="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.140625" style="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="9.42578125" style="9" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.85546875" style="9" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" style="9" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.7109375" style="9" bestFit="1" customWidth="1"/>
-    <col min="11" max="13" width="9.42578125" style="9" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.28515625" style="9" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.42578125" style="9" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10.5703125" style="9" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="25.5703125" style="9" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.85546875" style="8" customWidth="1"/>
+    <col min="2" max="2" width="16.85546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.42578125" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.85546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.42578125" style="8" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.28515625" style="8" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17" style="8" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" style="8" customWidth="1"/>
+    <col min="10" max="10" width="11.85546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="9.42578125" style="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A3" s="12" t="s">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="D3" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="E3" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="E3" s="12" t="s">
+      <c r="F3" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="F3" s="12" t="s">
+      <c r="G3" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="H3" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="I3" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="G3" s="12" t="s">
+      <c r="J3" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="K3" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="H3" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="I3" s="12" t="s">
+      <c r="L3" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="J3" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="K3" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="L3" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="M3" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="N3" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="O3" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="P3" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q3" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="R3" s="12" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A4"/>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
-      <c r="K4" s="6"/>
-      <c r="L4" s="6"/>
-      <c r="M4" s="6"/>
-      <c r="N4" s="6"/>
-      <c r="O4" s="6"/>
-      <c r="P4" s="6"/>
-      <c r="Q4" s="6"/>
-      <c r="R4" s="6"/>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A5"/>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="6"/>
-      <c r="L5" s="6"/>
-      <c r="M5" s="6"/>
-      <c r="N5" s="6"/>
-      <c r="O5" s="6"/>
-      <c r="P5" s="6"/>
-      <c r="Q5" s="6"/>
-      <c r="R5" s="6"/>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A6"/>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
-      <c r="K6" s="6"/>
-      <c r="L6" s="6"/>
-      <c r="M6" s="6"/>
-      <c r="N6" s="6"/>
-      <c r="O6" s="6"/>
-      <c r="P6" s="6"/>
-      <c r="Q6" s="6"/>
-      <c r="R6" s="6"/>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A7"/>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="6"/>
-      <c r="L7" s="6"/>
-      <c r="M7" s="6"/>
-      <c r="N7" s="6"/>
-      <c r="O7" s="6"/>
-      <c r="P7" s="6"/>
-      <c r="Q7" s="6"/>
-      <c r="R7" s="6"/>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A8"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="6"/>
-      <c r="K8" s="6"/>
-      <c r="L8" s="6"/>
-      <c r="M8" s="6"/>
-      <c r="N8" s="6"/>
-      <c r="O8" s="6"/>
-      <c r="P8" s="6"/>
-      <c r="Q8" s="6"/>
-      <c r="R8" s="6"/>
-    </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A42" s="1" t="s">
-        <v>40</v>
       </c>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
     </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A44" s="12" t="s">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A44" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B44" s="12" t="s">
+      <c r="B44" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C44" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="C44" s="12" t="s">
+      <c r="D44" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="D44" s="12" t="s">
+      <c r="E44" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="E44" s="12" t="s">
+      <c r="F44" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="F44" s="12" t="s">
+      <c r="G44" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="H44" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="I44" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="G44" s="12" t="s">
+      <c r="J44" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="K44" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="H44" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="I44" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="J44" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="K44" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="L44" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="M44" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="N44" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="O44" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="P44" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q44" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="R44" s="12" t="s">
-        <v>19</v>
+      <c r="L44" s="11" t="s">
+        <v>18</v>
       </c>
     </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A45"/>
-      <c r="B45" s="6"/>
-      <c r="C45" s="6"/>
-      <c r="D45" s="6"/>
-      <c r="E45" s="6"/>
-      <c r="F45" s="6"/>
-      <c r="G45" s="6"/>
-      <c r="H45" s="6"/>
-      <c r="I45" s="6"/>
-      <c r="J45" s="6"/>
-      <c r="K45" s="6"/>
-      <c r="L45" s="6"/>
-      <c r="M45" s="6"/>
-      <c r="N45" s="6"/>
-      <c r="O45" s="6"/>
-      <c r="P45" s="6"/>
-      <c r="Q45" s="6"/>
-      <c r="R45" s="6"/>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B45" s="5"/>
+      <c r="C45" s="5"/>
+      <c r="D45" s="5"/>
+      <c r="E45" s="5"/>
+      <c r="F45" s="5"/>
+      <c r="G45" s="5"/>
+      <c r="H45" s="5"/>
+      <c r="I45" s="5"/>
+      <c r="J45" s="5"/>
+      <c r="K45" s="5"/>
+      <c r="L45" s="5"/>
     </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A46"/>
-      <c r="B46" s="6"/>
-      <c r="C46" s="6"/>
-      <c r="D46" s="6"/>
-      <c r="E46" s="6"/>
-      <c r="F46" s="6"/>
-      <c r="G46" s="6"/>
-      <c r="H46" s="6"/>
-      <c r="I46" s="6"/>
-      <c r="J46" s="6"/>
-      <c r="K46" s="6"/>
-      <c r="L46" s="6"/>
-      <c r="M46" s="6"/>
-      <c r="N46" s="6"/>
-      <c r="O46" s="6"/>
-      <c r="P46" s="6"/>
-      <c r="Q46" s="6"/>
-      <c r="R46" s="6"/>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B46" s="5"/>
+      <c r="C46" s="5"/>
+      <c r="D46" s="5"/>
+      <c r="E46" s="5"/>
+      <c r="F46" s="5"/>
+      <c r="G46" s="5"/>
+      <c r="H46" s="5"/>
+      <c r="I46" s="5"/>
+      <c r="J46" s="5"/>
+      <c r="K46" s="5"/>
+      <c r="L46" s="5"/>
     </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47"/>
-      <c r="B47" s="6"/>
-      <c r="C47" s="6"/>
-      <c r="D47" s="6"/>
-      <c r="E47" s="6"/>
-      <c r="F47" s="6"/>
-      <c r="G47" s="6"/>
-      <c r="H47" s="6"/>
-      <c r="I47" s="6"/>
-      <c r="J47" s="6"/>
-      <c r="K47" s="6"/>
-      <c r="L47" s="6"/>
-      <c r="M47" s="6"/>
-      <c r="N47" s="6"/>
-      <c r="O47" s="6"/>
-      <c r="P47" s="6"/>
-      <c r="Q47" s="6"/>
-      <c r="R47" s="6"/>
+      <c r="B47" s="5"/>
+      <c r="C47" s="5"/>
+      <c r="D47" s="5"/>
+      <c r="E47" s="5"/>
+      <c r="F47" s="5"/>
+      <c r="G47" s="5"/>
+      <c r="H47" s="5"/>
+      <c r="I47" s="5"/>
+      <c r="J47" s="5"/>
+      <c r="K47" s="5"/>
+      <c r="L47" s="5"/>
     </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48"/>
-      <c r="B48" s="6"/>
-      <c r="C48" s="6"/>
-      <c r="D48" s="6"/>
-      <c r="E48" s="6"/>
-      <c r="F48" s="6"/>
-      <c r="G48" s="6"/>
-      <c r="H48" s="6"/>
-      <c r="I48" s="6"/>
-      <c r="J48" s="6"/>
-      <c r="K48" s="6"/>
-      <c r="L48" s="6"/>
-      <c r="M48" s="6"/>
-      <c r="N48" s="6"/>
-      <c r="O48" s="6"/>
-      <c r="P48" s="6"/>
-      <c r="Q48" s="6"/>
-      <c r="R48" s="6"/>
+      <c r="B48" s="5"/>
+      <c r="C48" s="5"/>
+      <c r="D48" s="5"/>
+      <c r="E48" s="5"/>
+      <c r="F48" s="5"/>
+      <c r="G48" s="5"/>
+      <c r="H48" s="5"/>
+      <c r="I48" s="5"/>
+      <c r="J48" s="5"/>
+      <c r="K48" s="5"/>
+      <c r="L48" s="5"/>
     </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49"/>
-      <c r="B49" s="6"/>
-      <c r="C49" s="6"/>
-      <c r="D49" s="6"/>
-      <c r="E49" s="6"/>
-      <c r="F49" s="6"/>
-      <c r="G49" s="6"/>
-      <c r="H49" s="6"/>
-      <c r="I49" s="6"/>
-      <c r="J49" s="6"/>
-      <c r="K49" s="6"/>
-      <c r="L49" s="6"/>
-      <c r="M49" s="6"/>
-      <c r="N49" s="6"/>
-      <c r="O49" s="6"/>
-      <c r="P49" s="6"/>
-      <c r="Q49" s="6"/>
-      <c r="R49" s="6"/>
+      <c r="B49" s="5"/>
+      <c r="C49" s="5"/>
+      <c r="D49" s="5"/>
+      <c r="E49" s="5"/>
+      <c r="F49" s="5"/>
+      <c r="G49" s="5"/>
+      <c r="H49" s="5"/>
+      <c r="I49" s="5"/>
+      <c r="J49" s="5"/>
+      <c r="K49" s="5"/>
+      <c r="L49" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -14934,186 +14505,186 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.140625" style="9" customWidth="1"/>
-    <col min="2" max="2" width="14.7109375" style="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.7109375" style="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.5703125" style="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.140625" style="8" customWidth="1"/>
+    <col min="2" max="2" width="14.7109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.5703125" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="B1" s="1"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="C3" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="E3" s="12" t="s">
-        <v>19</v>
+      <c r="B3" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4"/>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5"/>
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="B42" s="1"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" s="12" t="s">
+      <c r="A44" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B44" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="C44" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="D44" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="E44" s="12" t="s">
-        <v>19</v>
+      <c r="B44" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="C44" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D44" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="E44" s="11" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45"/>
-      <c r="B45" s="8"/>
-      <c r="C45" s="8"/>
-      <c r="D45" s="8"/>
-      <c r="E45" s="8"/>
+      <c r="B45" s="7"/>
+      <c r="C45" s="7"/>
+      <c r="D45" s="7"/>
+      <c r="E45" s="7"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46"/>
-      <c r="B46" s="8"/>
-      <c r="C46" s="8"/>
-      <c r="D46" s="8"/>
-      <c r="E46" s="8"/>
+      <c r="B46" s="7"/>
+      <c r="C46" s="7"/>
+      <c r="D46" s="7"/>
+      <c r="E46" s="7"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47"/>
-      <c r="B47" s="8"/>
-      <c r="C47" s="8"/>
-      <c r="D47" s="8"/>
-      <c r="E47" s="8"/>
+      <c r="B47" s="7"/>
+      <c r="C47" s="7"/>
+      <c r="D47" s="7"/>
+      <c r="E47" s="7"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48"/>
-      <c r="B48" s="8"/>
-      <c r="C48" s="8"/>
-      <c r="D48" s="8"/>
-      <c r="E48" s="8"/>
+      <c r="B48" s="7"/>
+      <c r="C48" s="7"/>
+      <c r="D48" s="7"/>
+      <c r="E48" s="7"/>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49"/>
-      <c r="B49" s="8"/>
-      <c r="C49" s="8"/>
-      <c r="D49" s="8"/>
-      <c r="E49" s="8"/>
+      <c r="B49" s="7"/>
+      <c r="C49" s="7"/>
+      <c r="D49" s="7"/>
+      <c r="E49" s="7"/>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="B83" s="1"/>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A85" s="12" t="s">
+      <c r="A85" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B85" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="C85" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="D85" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="E85" s="12" t="s">
-        <v>19</v>
+      <c r="B85" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="C85" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D85" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="E85" s="11" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86"/>
-      <c r="B86" s="8"/>
-      <c r="C86" s="8"/>
-      <c r="D86" s="8"/>
-      <c r="E86" s="8"/>
+      <c r="B86" s="7"/>
+      <c r="C86" s="7"/>
+      <c r="D86" s="7"/>
+      <c r="E86" s="7"/>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87"/>
-      <c r="B87" s="8"/>
-      <c r="C87" s="8"/>
-      <c r="D87" s="8"/>
-      <c r="E87" s="8"/>
+      <c r="B87" s="7"/>
+      <c r="C87" s="7"/>
+      <c r="D87" s="7"/>
+      <c r="E87" s="7"/>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88"/>
-      <c r="B88" s="8"/>
-      <c r="C88" s="8"/>
-      <c r="D88" s="8"/>
-      <c r="E88" s="8"/>
+      <c r="B88" s="7"/>
+      <c r="C88" s="7"/>
+      <c r="D88" s="7"/>
+      <c r="E88" s="7"/>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89"/>
-      <c r="B89" s="8"/>
-      <c r="C89" s="8"/>
-      <c r="D89" s="8"/>
-      <c r="E89" s="8"/>
+      <c r="B89" s="7"/>
+      <c r="C89" s="7"/>
+      <c r="D89" s="7"/>
+      <c r="E89" s="7"/>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90"/>
-      <c r="B90" s="8"/>
-      <c r="C90" s="8"/>
-      <c r="D90" s="8"/>
-      <c r="E90" s="8"/>
+      <c r="B90" s="7"/>
+      <c r="C90" s="7"/>
+      <c r="D90" s="7"/>
+      <c r="E90" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -15131,281 +14702,281 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.85546875" style="9" customWidth="1"/>
-    <col min="2" max="2" width="14.42578125" style="9" customWidth="1"/>
-    <col min="3" max="3" width="13.28515625" style="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.28515625" style="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.5703125" style="9" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.85546875" style="8" customWidth="1"/>
+    <col min="2" max="2" width="14.42578125" style="8" customWidth="1"/>
+    <col min="3" max="3" width="13.28515625" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.28515625" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.5703125" style="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="C3" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="D3" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="E3" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="F3" s="12" t="s">
-        <v>19</v>
+      <c r="B3" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4"/>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5"/>
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B14" s="8"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B15" s="8"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B17" s="8"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B18" s="8"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B19" s="8"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B20" s="8"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B21" s="8"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="8"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B22" s="8"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="8"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B23" s="8"/>
-      <c r="C23" s="8"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="8"/>
+      <c r="B23" s="7"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B24" s="8"/>
-      <c r="C24" s="8"/>
-      <c r="D24" s="8"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="8"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B25" s="8"/>
-      <c r="C25" s="8"/>
-      <c r="D25" s="8"/>
-      <c r="E25" s="8"/>
-      <c r="F25" s="8"/>
+      <c r="B25" s="7"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B26" s="8"/>
-      <c r="C26" s="8"/>
-      <c r="D26" s="8"/>
-      <c r="E26" s="8"/>
-      <c r="F26" s="8"/>
+      <c r="B26" s="7"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="7"/>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B28" s="8"/>
-      <c r="C28" s="8"/>
-      <c r="D28" s="8"/>
-      <c r="E28" s="8"/>
-      <c r="F28" s="8"/>
+      <c r="B28" s="7"/>
+      <c r="C28" s="7"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="7"/>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B29" s="8"/>
-      <c r="C29" s="8"/>
-      <c r="D29" s="8"/>
-      <c r="E29" s="8"/>
-      <c r="F29" s="8"/>
+      <c r="B29" s="7"/>
+      <c r="C29" s="7"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="7"/>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B31" s="8"/>
-      <c r="C31" s="8"/>
-      <c r="D31" s="8"/>
-      <c r="E31" s="8"/>
-      <c r="F31" s="8"/>
+      <c r="B31" s="7"/>
+      <c r="C31" s="7"/>
+      <c r="D31" s="7"/>
+      <c r="E31" s="7"/>
+      <c r="F31" s="7"/>
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B32" s="8"/>
-      <c r="C32" s="8"/>
-      <c r="D32" s="8"/>
-      <c r="E32" s="8"/>
-      <c r="F32" s="8"/>
+      <c r="B32" s="7"/>
+      <c r="C32" s="7"/>
+      <c r="D32" s="7"/>
+      <c r="E32" s="7"/>
+      <c r="F32" s="7"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B33" s="8"/>
-      <c r="C33" s="8"/>
-      <c r="D33" s="8"/>
-      <c r="E33" s="8"/>
-      <c r="F33" s="8"/>
+      <c r="B33" s="7"/>
+      <c r="C33" s="7"/>
+      <c r="D33" s="7"/>
+      <c r="E33" s="7"/>
+      <c r="F33" s="7"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B34" s="8"/>
-      <c r="C34" s="8"/>
-      <c r="D34" s="8"/>
-      <c r="E34" s="8"/>
-      <c r="F34" s="8"/>
+      <c r="B34" s="7"/>
+      <c r="C34" s="7"/>
+      <c r="D34" s="7"/>
+      <c r="E34" s="7"/>
+      <c r="F34" s="7"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B35" s="8"/>
-      <c r="C35" s="8"/>
-      <c r="D35" s="8"/>
-      <c r="E35" s="8"/>
-      <c r="F35" s="8"/>
+      <c r="B35" s="7"/>
+      <c r="C35" s="7"/>
+      <c r="D35" s="7"/>
+      <c r="E35" s="7"/>
+      <c r="F35" s="7"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B37" s="8"/>
-      <c r="C37" s="8"/>
-      <c r="D37" s="8"/>
-      <c r="E37" s="8"/>
-      <c r="F37" s="8"/>
+      <c r="B37" s="7"/>
+      <c r="C37" s="7"/>
+      <c r="D37" s="7"/>
+      <c r="E37" s="7"/>
+      <c r="F37" s="7"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B38" s="8"/>
-      <c r="C38" s="8"/>
-      <c r="D38" s="8"/>
-      <c r="E38" s="8"/>
-      <c r="F38" s="8"/>
+      <c r="B38" s="7"/>
+      <c r="C38" s="7"/>
+      <c r="D38" s="7"/>
+      <c r="E38" s="7"/>
+      <c r="F38" s="7"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" s="12" t="s">
+      <c r="A44" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B44" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="C44" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="D44" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="E44" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="F44" s="12" t="s">
-        <v>19</v>
+      <c r="B44" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C44" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="D44" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="E44" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="F44" s="11" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
@@ -15450,139 +15021,139 @@
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
-      <c r="D83" s="7"/>
+      <c r="D83" s="6"/>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A85" s="12" t="s">
+      <c r="A85" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B85" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="C85" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="D85" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="E85" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="F85" s="12" t="s">
-        <v>19</v>
+      <c r="B85" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C85" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="D85" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="E85" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="F85" s="11" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86"/>
-      <c r="B86" s="10"/>
-      <c r="C86" s="10"/>
-      <c r="D86" s="10"/>
-      <c r="E86" s="10"/>
-      <c r="F86" s="6"/>
+      <c r="B86" s="9"/>
+      <c r="C86" s="9"/>
+      <c r="D86" s="9"/>
+      <c r="E86" s="9"/>
+      <c r="F86" s="5"/>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87"/>
-      <c r="B87" s="10"/>
-      <c r="C87" s="10"/>
-      <c r="D87" s="10"/>
-      <c r="E87" s="10"/>
-      <c r="F87" s="6"/>
+      <c r="B87" s="9"/>
+      <c r="C87" s="9"/>
+      <c r="D87" s="9"/>
+      <c r="E87" s="9"/>
+      <c r="F87" s="5"/>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88"/>
-      <c r="B88" s="10"/>
-      <c r="C88" s="10"/>
-      <c r="D88" s="10"/>
-      <c r="E88" s="10"/>
-      <c r="F88" s="6"/>
+      <c r="B88" s="9"/>
+      <c r="C88" s="9"/>
+      <c r="D88" s="9"/>
+      <c r="E88" s="9"/>
+      <c r="F88" s="5"/>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89"/>
-      <c r="B89" s="10"/>
-      <c r="C89" s="10"/>
-      <c r="D89" s="10"/>
-      <c r="E89" s="10"/>
-      <c r="F89" s="6"/>
+      <c r="B89" s="9"/>
+      <c r="C89" s="9"/>
+      <c r="D89" s="9"/>
+      <c r="E89" s="9"/>
+      <c r="F89" s="5"/>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90"/>
-      <c r="B90" s="10"/>
-      <c r="C90" s="10"/>
-      <c r="D90" s="10"/>
-      <c r="E90" s="10"/>
-      <c r="F90" s="6"/>
+      <c r="B90" s="9"/>
+      <c r="C90" s="9"/>
+      <c r="D90" s="9"/>
+      <c r="E90" s="9"/>
+      <c r="F90" s="5"/>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="B124" s="1"/>
       <c r="C124" s="1"/>
-      <c r="D124" s="7"/>
+      <c r="D124" s="6"/>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A126" s="12" t="s">
+      <c r="A126" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B126" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="C126" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="D126" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="E126" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="F126" s="12" t="s">
-        <v>19</v>
+      <c r="B126" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C126" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="D126" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="E126" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="F126" s="11" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127"/>
-      <c r="B127" s="10"/>
-      <c r="C127" s="10"/>
-      <c r="D127" s="10"/>
-      <c r="E127" s="10"/>
-      <c r="F127" s="6"/>
+      <c r="B127" s="9"/>
+      <c r="C127" s="9"/>
+      <c r="D127" s="9"/>
+      <c r="E127" s="9"/>
+      <c r="F127" s="5"/>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128"/>
-      <c r="B128" s="10"/>
-      <c r="C128" s="10"/>
-      <c r="D128" s="10"/>
-      <c r="E128" s="10"/>
-      <c r="F128" s="6"/>
+      <c r="B128" s="9"/>
+      <c r="C128" s="9"/>
+      <c r="D128" s="9"/>
+      <c r="E128" s="9"/>
+      <c r="F128" s="5"/>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129"/>
-      <c r="B129" s="10"/>
-      <c r="C129" s="10"/>
-      <c r="D129" s="10"/>
-      <c r="E129" s="10"/>
-      <c r="F129" s="6"/>
+      <c r="B129" s="9"/>
+      <c r="C129" s="9"/>
+      <c r="D129" s="9"/>
+      <c r="E129" s="9"/>
+      <c r="F129" s="5"/>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130"/>
-      <c r="B130" s="10"/>
-      <c r="C130" s="10"/>
-      <c r="D130" s="10"/>
-      <c r="E130" s="10"/>
-      <c r="F130" s="6"/>
+      <c r="B130" s="9"/>
+      <c r="C130" s="9"/>
+      <c r="D130" s="9"/>
+      <c r="E130" s="9"/>
+      <c r="F130" s="5"/>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131"/>
-      <c r="B131" s="10"/>
-      <c r="C131" s="10"/>
-      <c r="D131" s="10"/>
-      <c r="E131" s="10"/>
-      <c r="F131" s="6"/>
+      <c r="B131" s="9"/>
+      <c r="C131" s="9"/>
+      <c r="D131" s="9"/>
+      <c r="E131" s="9"/>
+      <c r="F131" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -15595,351 +15166,246 @@
   <dimension ref="A1:I90"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A74" workbookViewId="0">
-      <selection activeCell="O91" sqref="O91"/>
+      <selection activeCell="N93" sqref="N93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15" style="9" customWidth="1"/>
-    <col min="2" max="2" width="16.7109375" style="9" customWidth="1"/>
-    <col min="3" max="3" width="23.42578125" style="9" customWidth="1"/>
-    <col min="4" max="4" width="14.28515625" style="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.28515625" style="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.140625" style="9" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.42578125" style="9" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="11.5703125" style="9" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15" style="8" customWidth="1"/>
+    <col min="2" max="2" width="16.7109375" style="8" customWidth="1"/>
+    <col min="3" max="3" width="23.42578125" style="8" customWidth="1"/>
+    <col min="4" max="4" width="14.28515625" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.28515625" style="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.42578125" style="8" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="11.5703125" style="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="C3" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="D3" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="E3" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="F3" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="G3" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="H3" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="I3" s="12" t="s">
-        <v>19</v>
+      <c r="B3" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="H3" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="I3" s="11" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4"/>
-      <c r="B4" s="11"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="11"/>
-      <c r="I4" s="11"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5"/>
-      <c r="B5" s="11"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="11"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="11"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6"/>
-      <c r="B6" s="11"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="11"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7"/>
-      <c r="B7" s="11"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="11"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8"/>
-      <c r="B8" s="11"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="11"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A44" s="12" t="s">
+      <c r="A44" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B44" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="C44" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="D44" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="E44" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="F44" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="G44" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="H44" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="I44" s="12" t="s">
-        <v>19</v>
+      <c r="B44" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="C44" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="D44" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="E44" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="F44" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="G44" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="H44" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="I44" s="11" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45"/>
-      <c r="B45" s="11"/>
-      <c r="C45" s="11"/>
-      <c r="D45" s="11"/>
-      <c r="E45" s="11"/>
-      <c r="F45" s="11"/>
-      <c r="G45" s="11"/>
-      <c r="H45" s="11"/>
-      <c r="I45" s="11"/>
+      <c r="B45" s="10"/>
+      <c r="C45" s="10"/>
+      <c r="D45" s="10"/>
+      <c r="E45" s="10"/>
+      <c r="F45" s="10"/>
+      <c r="G45" s="10"/>
+      <c r="H45" s="10"/>
+      <c r="I45" s="10"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46"/>
-      <c r="B46" s="11"/>
-      <c r="C46" s="11"/>
-      <c r="D46" s="11"/>
-      <c r="E46" s="11"/>
-      <c r="F46" s="11"/>
-      <c r="G46" s="11"/>
-      <c r="H46" s="11"/>
-      <c r="I46" s="11"/>
+      <c r="B46" s="10"/>
+      <c r="C46" s="10"/>
+      <c r="D46" s="10"/>
+      <c r="E46" s="10"/>
+      <c r="F46" s="10"/>
+      <c r="G46" s="10"/>
+      <c r="H46" s="10"/>
+      <c r="I46" s="10"/>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47"/>
-      <c r="B47" s="11"/>
-      <c r="C47" s="11"/>
-      <c r="D47" s="11"/>
-      <c r="E47" s="11"/>
-      <c r="F47" s="11"/>
-      <c r="G47" s="11"/>
-      <c r="H47" s="11"/>
-      <c r="I47" s="11"/>
+      <c r="B47" s="10"/>
+      <c r="C47" s="10"/>
+      <c r="D47" s="10"/>
+      <c r="E47" s="10"/>
+      <c r="F47" s="10"/>
+      <c r="G47" s="10"/>
+      <c r="H47" s="10"/>
+      <c r="I47" s="10"/>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48"/>
-      <c r="B48" s="11"/>
-      <c r="C48" s="11"/>
-      <c r="D48" s="11"/>
-      <c r="E48" s="11"/>
-      <c r="F48" s="11"/>
-      <c r="G48" s="11"/>
-      <c r="H48" s="11"/>
-      <c r="I48" s="11"/>
+      <c r="B48" s="10"/>
+      <c r="C48" s="10"/>
+      <c r="D48" s="10"/>
+      <c r="E48" s="10"/>
+      <c r="F48" s="10"/>
+      <c r="G48" s="10"/>
+      <c r="H48" s="10"/>
+      <c r="I48" s="10"/>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49"/>
-      <c r="B49" s="11"/>
-      <c r="C49" s="11"/>
-      <c r="D49" s="11"/>
-      <c r="E49" s="11"/>
-      <c r="F49" s="11"/>
-      <c r="G49" s="11"/>
-      <c r="H49" s="11"/>
-      <c r="I49" s="11"/>
+      <c r="B49" s="10"/>
+      <c r="C49" s="10"/>
+      <c r="D49" s="10"/>
+      <c r="E49" s="10"/>
+      <c r="F49" s="10"/>
+      <c r="G49" s="10"/>
+      <c r="H49" s="10"/>
+      <c r="I49" s="10"/>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
-      <c r="D83" s="13"/>
+      <c r="D83" s="12"/>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A85" s="12" t="s">
+      <c r="A85" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B85" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="C85" s="12" t="s">
-        <v>68</v>
+      <c r="B85" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="C85" s="11" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B86" s="14"/>
-      <c r="C86" s="14"/>
+      <c r="B86" s="13"/>
+      <c r="C86" s="13"/>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B87" s="14"/>
-      <c r="C87" s="14"/>
+      <c r="B87" s="13"/>
+      <c r="C87" s="13"/>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B88" s="14"/>
-      <c r="C88" s="14"/>
+      <c r="B88" s="13"/>
+      <c r="C88" s="13"/>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A89" s="13"/>
-      <c r="B89" s="14"/>
-      <c r="C89" s="14"/>
+      <c r="A89" s="12"/>
+      <c r="B89" s="13"/>
+      <c r="C89" s="13"/>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A90" s="13"/>
-      <c r="B90" s="14"/>
-      <c r="C90" s="14"/>
+      <c r="A90" s="12"/>
+      <c r="B90" s="13"/>
+      <c r="C90" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:C18"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="A14:C18"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="15.85546875" style="9" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="9" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="C3" s="12" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4"/>
-      <c r="B4" s="6"/>
-      <c r="C4" s="11"/>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5"/>
-      <c r="B5" s="6"/>
-      <c r="C5" s="11"/>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6"/>
-      <c r="B6" s="6"/>
-      <c r="C6" s="11"/>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7"/>
-      <c r="B7" s="6"/>
-      <c r="C7" s="11"/>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="11"/>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="B13" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="C13" s="12" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14"/>
-      <c r="B14" s="6"/>
-      <c r="C14" s="11"/>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15"/>
-      <c r="B15" s="6"/>
-      <c r="C15" s="11"/>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16"/>
-      <c r="B16" s="6"/>
-      <c r="C16" s="11"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17"/>
-      <c r="B17" s="6"/>
-      <c r="C17" s="11"/>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18"/>
-      <c r="B18" s="6"/>
-      <c r="C18" s="11"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>